--- a/tspi/ciclo-1/task2/20105914.xlsx
+++ b/tspi/ciclo-1/task2/20105914.xlsx
@@ -29,7 +29,7 @@
     <t>Team Leader</t>
   </si>
   <si>
-    <t>Experimiento Ruby on Rails #1.</t>
+    <t>Instalar y configurar Ruby On Rails.</t>
   </si>
   <si>
     <t>Reunión de equipo para analizar la minuta de la reunión #1 con el cliente.</t>
@@ -179,7 +179,7 @@
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -201,17 +201,18 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D7" activeCellId="0" pane="topLeft" sqref="D7"/>
+      <selection activeCell="F10" activeCellId="0" pane="topLeft" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.6627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.73333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.0470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.73333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="12.0470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.74901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.74901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.4313725490196"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="8.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
